--- a/ResultadoEleicoesDistritos/R. A. AÇORES_ANGRA DO HEROÍSMO.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_ANGRA DO HEROÍSMO.xlsx
@@ -597,64 +597,64 @@
         <v>10033</v>
       </c>
       <c r="H2" t="n">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="I2" t="n">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="J2" t="n">
-        <v>4177</v>
+        <v>4105</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L2" t="n">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="M2" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N2" t="n">
-        <v>733</v>
+        <v>706</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="S2" t="n">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="T2" t="n">
-        <v>712</v>
+        <v>681</v>
       </c>
       <c r="U2" t="n">
         <v>57</v>
       </c>
       <c r="V2" t="n">
-        <v>6387</v>
+        <v>6427</v>
       </c>
       <c r="W2" t="n">
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>6375</v>
+        <v>6424</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AA2" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
